--- a/Face_detection_Attendance_system.xlsx
+++ b/Face_detection_Attendance_system.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,7 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +504,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +527,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +550,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +573,7 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +596,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -608,6 +619,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +642,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +665,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -674,6 +688,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +711,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +734,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -740,6 +757,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,6 +780,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +803,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,6 +826,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +849,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +872,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +895,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +918,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +941,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -938,6 +964,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -960,6 +987,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -982,6 +1010,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1004,6 +1033,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1026,6 +1056,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1048,6 +1079,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1070,6 +1102,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1092,6 +1125,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1114,6 +1148,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1171,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1194,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1217,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1240,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1263,7 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1245,6 +1285,448 @@
         <is>
           <t>Absent</t>
         </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>44.55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>30.66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ebrahim Hamza</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Abhay m</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ajay Dev M</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ajay Dev M</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ajay Dev M</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>47.76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ajay Dev M</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>37.71</v>
       </c>
     </row>
   </sheetData>
